--- a/test/singapore/singapore.summary.xlsx
+++ b/test/singapore/singapore.summary.xlsx
@@ -1,14 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/john_nazareth_broadridge_com/Documents/personal/projects/gp/groupInXLS/test/singapore/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F3CBAA96A1E2957287C344B0595233D44872C72E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C361A18-F503-4288-B64F-5C921A6A462D}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="XRates" r:id="rId3" sheetId="1"/>
-    <sheet name="Summary" r:id="rId4" sheetId="2"/>
+    <sheet name="XRates" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -162,17 +183,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_($* #,##0.00_);_($* (#,##0.00);_($* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$INR] #,##0.00_);[Red]([$INR] #,##0.00)"/>
-    <numFmt numFmtId="166" formatCode="[$SGD] #,##0.00_);[Red]([$SGD] #,##0.00)"/>
-    <numFmt numFmtId="167" formatCode="[$GBP] #,##0.00_);[Red]([$GBP] #,##0.00)"/>
-    <numFmt numFmtId="168" formatCode="[$EUR] #,##0.00_);[Red]([$EUR] #,##0.00)"/>
+    <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$INR]\ #,##0.00_);[Red]\([$INR]\ #,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="[$SGD]\ #,##0.00_);[Red]\([$SGD]\ #,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="[$GBP]\ #,##0.00_);[Red]\([$GBP]\ #,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="[$EUR]\ #,##0.00_);[Red]\([$EUR]\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,7 +205,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -199,44 +220,336 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -256,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -276,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -296,7 +609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -317,19 +630,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I1" t="s">
         <v>19</v>
       </c>
@@ -343,7 +663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -399,7 +719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -412,7 +732,7 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="n" s="1">
+      <c r="E3" s="1">
         <v>8.98</v>
       </c>
       <c r="F3" t="s">
@@ -421,38 +741,38 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n" s="1">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>8.98</v>
       </c>
-      <c r="K3" t="n" s="1">
+      <c r="K3" s="1">
         <v>-122.46</v>
       </c>
-      <c r="L3" t="n" s="1">
+      <c r="L3" s="1">
         <v>122.46</v>
       </c>
-      <c r="M3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n" s="1">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>122.46</v>
       </c>
-      <c r="O3" t="n" s="1">
+      <c r="O3" s="1">
         <v>110.81</v>
       </c>
-      <c r="P3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n" s="1">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
         <v>233.27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -465,8 +785,8 @@
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="n" s="2">
-        <v>4424.0</v>
+      <c r="E4" s="2">
+        <v>4424</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -477,38 +797,38 @@
       <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n" s="2">
-        <v>4424.0</v>
-      </c>
-      <c r="K4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O4" t="n" s="2">
-        <v>4424.0</v>
-      </c>
-      <c r="P4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n" s="2">
-        <v>4424.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4424</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4424</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -521,8 +841,8 @@
       <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="n" s="3">
-        <v>8.88</v>
+      <c r="E5" s="3">
+        <v>8.8800000000000008</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -530,43 +850,43 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n" s="3">
-        <v>8.88</v>
-      </c>
-      <c r="K5" t="n" s="3">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="K5" s="3">
         <v>31.5</v>
       </c>
-      <c r="L5" t="n" s="3">
+      <c r="L5" s="3">
         <v>-31.5</v>
       </c>
-      <c r="M5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N5" t="n" s="3">
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>166.5</v>
       </c>
-      <c r="O5" t="n" s="3">
-        <v>313.78</v>
-      </c>
-      <c r="P5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="n" s="3">
-        <v>198.0</v>
-      </c>
-      <c r="R5" t="n" s="3">
-        <v>282.28</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="O5" s="3">
+        <v>313.77999999999997</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>198</v>
+      </c>
+      <c r="R5" s="3">
+        <v>282.27999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -579,8 +899,9 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <f>Summary!E3*XRates!B2</f>
+        <v>8.98</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -588,38 +909,48 @@
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <f>Summary!I3*XRates!B2</f>
-      </c>
-      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <f>Summary!J3*XRates!B2</f>
-      </c>
-      <c r="K8" s="4">
+        <v>8.98</v>
+      </c>
+      <c r="K8" s="1">
         <f>Summary!K3*XRates!B2</f>
-      </c>
-      <c r="L8" s="4">
+        <v>-122.46</v>
+      </c>
+      <c r="L8" s="1">
         <f>Summary!L3*XRates!B2</f>
-      </c>
-      <c r="M8" s="4">
+        <v>122.46</v>
+      </c>
+      <c r="M8" s="1">
         <f>Summary!M3*XRates!B2</f>
-      </c>
-      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <f>Summary!N3*XRates!B2</f>
-      </c>
-      <c r="O8" s="4">
+        <v>122.46</v>
+      </c>
+      <c r="O8" s="1">
         <f>Summary!O3*XRates!B2</f>
-      </c>
-      <c r="P8" s="4">
+        <v>110.81</v>
+      </c>
+      <c r="P8" s="1">
         <f>Summary!P3*XRates!B2</f>
-      </c>
-      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <f>Summary!Q3*XRates!B2</f>
-      </c>
-      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
         <f>Summary!R3*XRates!B2</f>
-      </c>
-    </row>
-    <row r="9">
+        <v>233.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -632,8 +963,9 @@
       <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <f>Summary!E4*XRates!B3</f>
+        <v>62.374617480000005</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -644,38 +976,48 @@
       <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="1">
         <f>Summary!I4*XRates!B3</f>
-      </c>
-      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <f>Summary!J4*XRates!B3</f>
-      </c>
-      <c r="K9" s="5">
+        <v>62.374617480000005</v>
+      </c>
+      <c r="K9" s="1">
         <f>Summary!K4*XRates!B3</f>
-      </c>
-      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <f>Summary!L4*XRates!B3</f>
-      </c>
-      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <f>Summary!M4*XRates!B3</f>
-      </c>
-      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <f>Summary!N4*XRates!B3</f>
-      </c>
-      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <f>Summary!O4*XRates!B3</f>
-      </c>
-      <c r="P9" s="5">
+        <v>62.374617480000005</v>
+      </c>
+      <c r="P9" s="1">
         <f>Summary!P4*XRates!B3</f>
-      </c>
-      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <f>Summary!Q4*XRates!B3</f>
-      </c>
-      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <f>Summary!R4*XRates!B3</f>
-      </c>
-    </row>
-    <row r="10">
+        <v>62.374617480000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -688,8 +1030,9 @@
       <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="1">
         <f>Summary!E5*XRates!B4</f>
+        <v>6.4714730445600006</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -697,83 +1040,95 @@
       <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="1">
         <f>Summary!I5*XRates!B4</f>
-      </c>
-      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <f>Summary!J5*XRates!B4</f>
-      </c>
-      <c r="K10" s="6">
+        <v>6.4714730445600006</v>
+      </c>
+      <c r="K10" s="1">
         <f>Summary!K5*XRates!B4</f>
-      </c>
-      <c r="L10" s="6">
+        <v>22.956238840499999</v>
+      </c>
+      <c r="L10" s="1">
         <f>Summary!L5*XRates!B4</f>
-      </c>
-      <c r="M10" s="6">
+        <v>-22.956238840499999</v>
+      </c>
+      <c r="M10" s="1">
         <f>Summary!M5*XRates!B4</f>
-      </c>
-      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <f>Summary!N5*XRates!B4</f>
-      </c>
-      <c r="O10" s="6">
+        <v>121.34011958550001</v>
+      </c>
+      <c r="O10" s="1">
         <f>Summary!O5*XRates!B4</f>
-      </c>
-      <c r="P10" s="6">
+        <v>228.67328963085998</v>
+      </c>
+      <c r="P10" s="1">
         <f>Summary!P5*XRates!B4</f>
-      </c>
-      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <f>Summary!Q5*XRates!B4</f>
-      </c>
-      <c r="R10" s="6">
+        <v>144.29635842600001</v>
+      </c>
+      <c r="R10" s="1">
         <f>Summary!R5*XRates!B4</f>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" s="7">
-        <f>SUM(I8:I10)</f>
-      </c>
-      <c r="J11" s="7">
-        <f>SUM(J8:J10)</f>
-      </c>
-      <c r="K11" s="7">
-        <f>SUM(K8:K10)</f>
-      </c>
-      <c r="L11" s="7">
-        <f>SUM(L8:L10)</f>
-      </c>
-      <c r="M11" s="7">
-        <f>SUM(M8:M10)</f>
-      </c>
-      <c r="N11" s="7">
-        <f>SUM(N8:N10)</f>
-      </c>
-      <c r="O11" s="7">
-        <f>SUM(O8:O10)</f>
-      </c>
-      <c r="P11" s="7">
-        <f>SUM(P8:P10)</f>
-      </c>
-      <c r="Q11" s="7">
-        <f>SUM(Q8:Q10)</f>
-      </c>
-      <c r="R11" s="7">
-        <f>SUM(R8:R10)</f>
-      </c>
-    </row>
-    <row r="13">
+        <v>205.71705079035999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <f t="shared" ref="I11:R11" si="0">SUM(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>77.826090524560001</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>-99.503761159499987</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>99.503761159499987</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>243.8001195855</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>401.85790711085997</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>144.29635842600001</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>501.36166827036004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -786,8 +1141,9 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="2">
         <f>Summary!E3*XRates!C2</f>
+        <v>636.91803929999992</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -795,38 +1151,48 @@
       <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="2">
         <f>Summary!I3*XRates!C2</f>
-      </c>
-      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <f>Summary!J3*XRates!C2</f>
-      </c>
-      <c r="K14" s="8">
+        <v>636.91803929999992</v>
+      </c>
+      <c r="K14" s="2">
         <f>Summary!K3*XRates!C2</f>
-      </c>
-      <c r="L14" s="8">
+        <v>-8685.632861099999</v>
+      </c>
+      <c r="L14" s="2">
         <f>Summary!L3*XRates!C2</f>
-      </c>
-      <c r="M14" s="8">
+        <v>8685.632861099999</v>
+      </c>
+      <c r="M14" s="2">
         <f>Summary!M3*XRates!C2</f>
-      </c>
-      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
         <f>Summary!N3*XRates!C2</f>
-      </c>
-      <c r="O14" s="8">
+        <v>8685.632861099999</v>
+      </c>
+      <c r="O14" s="2">
         <f>Summary!O3*XRates!C2</f>
-      </c>
-      <c r="P14" s="8">
+        <v>7859.3416408499997</v>
+      </c>
+      <c r="P14" s="2">
         <f>Summary!P3*XRates!C2</f>
-      </c>
-      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
         <f>Summary!Q3*XRates!C2</f>
-      </c>
-      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
         <f>Summary!R3*XRates!C2</f>
-      </c>
-    </row>
-    <row r="15">
+        <v>16544.974501950001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -839,8 +1205,9 @@
       <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="2">
         <f>Summary!E4*XRates!C3</f>
+        <v>4424</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -851,38 +1218,48 @@
       <c r="H15" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="2">
         <f>Summary!I4*XRates!C3</f>
-      </c>
-      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <f>Summary!J4*XRates!C3</f>
-      </c>
-      <c r="K15" s="9">
+        <v>4424</v>
+      </c>
+      <c r="K15" s="2">
         <f>Summary!K4*XRates!C3</f>
-      </c>
-      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <f>Summary!L4*XRates!C3</f>
-      </c>
-      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <f>Summary!M4*XRates!C3</f>
-      </c>
-      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
         <f>Summary!N4*XRates!C3</f>
-      </c>
-      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <f>Summary!O4*XRates!C3</f>
-      </c>
-      <c r="P15" s="9">
+        <v>4424</v>
+      </c>
+      <c r="P15" s="2">
         <f>Summary!P4*XRates!C3</f>
-      </c>
-      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
         <f>Summary!Q4*XRates!C3</f>
-      </c>
-      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
         <f>Summary!R4*XRates!C3</f>
-      </c>
-    </row>
-    <row r="16">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -895,8 +1272,9 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="2">
         <f>Summary!E5*XRates!C4</f>
+        <v>459.36240000000004</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -904,83 +1282,95 @@
       <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="2">
         <f>Summary!I5*XRates!C4</f>
-      </c>
-      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <f>Summary!J5*XRates!C4</f>
-      </c>
-      <c r="K16" s="10">
+        <v>459.36240000000004</v>
+      </c>
+      <c r="K16" s="2">
         <f>Summary!K5*XRates!C4</f>
-      </c>
-      <c r="L16" s="10">
+        <v>1629.4949999999999</v>
+      </c>
+      <c r="L16" s="2">
         <f>Summary!L5*XRates!C4</f>
-      </c>
-      <c r="M16" s="10">
+        <v>-1629.4949999999999</v>
+      </c>
+      <c r="M16" s="2">
         <f>Summary!M5*XRates!C4</f>
-      </c>
-      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
         <f>Summary!N5*XRates!C4</f>
-      </c>
-      <c r="O16" s="10">
+        <v>8613.0450000000001</v>
+      </c>
+      <c r="O16" s="2">
         <f>Summary!O5*XRates!C4</f>
-      </c>
-      <c r="P16" s="10">
+        <v>16231.839399999997</v>
+      </c>
+      <c r="P16" s="2">
         <f>Summary!P5*XRates!C4</f>
-      </c>
-      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
         <f>Summary!Q5*XRates!C4</f>
-      </c>
-      <c r="R16" s="10">
+        <v>10242.539999999999</v>
+      </c>
+      <c r="R16" s="2">
         <f>Summary!R5*XRates!C4</f>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17" s="11">
-        <f>SUM(I14:I16)</f>
-      </c>
-      <c r="J17" s="11">
-        <f>SUM(J14:J16)</f>
-      </c>
-      <c r="K17" s="11">
-        <f>SUM(K14:K16)</f>
-      </c>
-      <c r="L17" s="11">
-        <f>SUM(L14:L16)</f>
-      </c>
-      <c r="M17" s="11">
-        <f>SUM(M14:M16)</f>
-      </c>
-      <c r="N17" s="11">
-        <f>SUM(N14:N16)</f>
-      </c>
-      <c r="O17" s="11">
-        <f>SUM(O14:O16)</f>
-      </c>
-      <c r="P17" s="11">
-        <f>SUM(P14:P16)</f>
-      </c>
-      <c r="Q17" s="11">
-        <f>SUM(Q14:Q16)</f>
-      </c>
-      <c r="R17" s="11">
-        <f>SUM(R14:R16)</f>
-      </c>
-    </row>
-    <row r="19">
+        <v>14602.344399999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I17" s="2">
+        <f t="shared" ref="I17:R17" si="1">SUM(I14:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>5520.2804392999997</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>-7056.1378610999991</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>7056.1378610999991</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="1"/>
+        <v>17298.677861099997</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="1"/>
+        <v>28515.181040849995</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="1"/>
+        <v>10242.539999999999</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="1"/>
+        <v>35571.318901949999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -993,8 +1383,9 @@
       <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="3">
         <f>Summary!E3*XRates!D2</f>
+        <v>12.322140480000002</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -1002,38 +1393,48 @@
       <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="3">
         <f>Summary!I3*XRates!D2</f>
-      </c>
-      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <f>Summary!J3*XRates!D2</f>
-      </c>
-      <c r="K20" s="12">
+        <v>12.322140480000002</v>
+      </c>
+      <c r="K20" s="3">
         <f>Summary!K3*XRates!D2</f>
-      </c>
-      <c r="L20" s="12">
+        <v>-168.03667296</v>
+      </c>
+      <c r="L20" s="3">
         <f>Summary!L3*XRates!D2</f>
-      </c>
-      <c r="M20" s="12">
+        <v>168.03667296</v>
+      </c>
+      <c r="M20" s="3">
         <f>Summary!M3*XRates!D2</f>
-      </c>
-      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <f>Summary!N3*XRates!D2</f>
-      </c>
-      <c r="O20" s="12">
+        <v>168.03667296</v>
+      </c>
+      <c r="O20" s="3">
         <f>Summary!O3*XRates!D2</f>
-      </c>
-      <c r="P20" s="12">
+        <v>152.05082256</v>
+      </c>
+      <c r="P20" s="3">
         <f>Summary!P3*XRates!D2</f>
-      </c>
-      <c r="Q20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <f>Summary!Q3*XRates!D2</f>
-      </c>
-      <c r="R20" s="12">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <f>Summary!R3*XRates!D2</f>
-      </c>
-    </row>
-    <row r="21">
+        <v>320.08749552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1046,8 +1447,9 @@
       <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="3">
         <f>Summary!E4*XRates!D3</f>
+        <v>85.520972207999989</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -1058,38 +1460,48 @@
       <c r="H21" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="3">
         <f>Summary!I4*XRates!D3</f>
-      </c>
-      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <f>Summary!J4*XRates!D3</f>
-      </c>
-      <c r="K21" s="13">
+        <v>85.520972207999989</v>
+      </c>
+      <c r="K21" s="3">
         <f>Summary!K4*XRates!D3</f>
-      </c>
-      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <f>Summary!L4*XRates!D3</f>
-      </c>
-      <c r="M21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <f>Summary!M4*XRates!D3</f>
-      </c>
-      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <f>Summary!N4*XRates!D3</f>
-      </c>
-      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <f>Summary!O4*XRates!D3</f>
-      </c>
-      <c r="P21" s="13">
+        <v>85.520972207999989</v>
+      </c>
+      <c r="P21" s="3">
         <f>Summary!P4*XRates!D3</f>
-      </c>
-      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <f>Summary!Q4*XRates!D3</f>
-      </c>
-      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <f>Summary!R4*XRates!D3</f>
-      </c>
-    </row>
-    <row r="22">
+        <v>85.520972207999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1102,8 +1514,9 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="3">
         <f>Summary!E5*XRates!D4</f>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F22" t="s">
         <v>32</v>
@@ -1111,83 +1524,95 @@
       <c r="G22" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="3">
         <f>Summary!I5*XRates!D4</f>
-      </c>
-      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <f>Summary!J5*XRates!D4</f>
-      </c>
-      <c r="K22" s="14">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="K22" s="3">
         <f>Summary!K5*XRates!D4</f>
-      </c>
-      <c r="L22" s="14">
+        <v>31.5</v>
+      </c>
+      <c r="L22" s="3">
         <f>Summary!L5*XRates!D4</f>
-      </c>
-      <c r="M22" s="14">
+        <v>-31.5</v>
+      </c>
+      <c r="M22" s="3">
         <f>Summary!M5*XRates!D4</f>
-      </c>
-      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <f>Summary!N5*XRates!D4</f>
-      </c>
-      <c r="O22" s="14">
+        <v>166.5</v>
+      </c>
+      <c r="O22" s="3">
         <f>Summary!O5*XRates!D4</f>
-      </c>
-      <c r="P22" s="14">
+        <v>313.77999999999997</v>
+      </c>
+      <c r="P22" s="3">
         <f>Summary!P5*XRates!D4</f>
-      </c>
-      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <f>Summary!Q5*XRates!D4</f>
-      </c>
-      <c r="R22" s="14">
+        <v>198</v>
+      </c>
+      <c r="R22" s="3">
         <f>Summary!R5*XRates!D4</f>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23" s="15">
-        <f>SUM(I20:I22)</f>
-      </c>
-      <c r="J23" s="15">
-        <f>SUM(J20:J22)</f>
-      </c>
-      <c r="K23" s="15">
-        <f>SUM(K20:K22)</f>
-      </c>
-      <c r="L23" s="15">
-        <f>SUM(L20:L22)</f>
-      </c>
-      <c r="M23" s="15">
-        <f>SUM(M20:M22)</f>
-      </c>
-      <c r="N23" s="15">
-        <f>SUM(N20:N22)</f>
-      </c>
-      <c r="O23" s="15">
-        <f>SUM(O20:O22)</f>
-      </c>
-      <c r="P23" s="15">
-        <f>SUM(P20:P22)</f>
-      </c>
-      <c r="Q23" s="15">
-        <f>SUM(Q20:Q22)</f>
-      </c>
-      <c r="R23" s="15">
-        <f>SUM(R20:R22)</f>
-      </c>
-    </row>
-    <row r="25">
+        <v>282.27999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I23" s="3">
+        <f t="shared" ref="I23:R23" si="2">SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="2"/>
+        <v>106.72311268799999</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="2"/>
+        <v>-136.53667296</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="2"/>
+        <v>136.53667296</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="2"/>
+        <v>334.53667296000003</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="2"/>
+        <v>551.35179476799999</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="2"/>
+        <v>687.88846772800002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1200,8 +1625,9 @@
       <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="4">
         <f>Summary!E3*XRates!E2</f>
+        <v>6.9258609199999999</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>
@@ -1209,38 +1635,48 @@
       <c r="G26" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="4">
         <f>Summary!I3*XRates!E2</f>
-      </c>
-      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
         <f>Summary!J3*XRates!E2</f>
-      </c>
-      <c r="K26" s="16">
+        <v>6.9258609199999999</v>
+      </c>
+      <c r="K26" s="4">
         <f>Summary!K3*XRates!E2</f>
-      </c>
-      <c r="L26" s="16">
+        <v>-94.447764839999991</v>
+      </c>
+      <c r="L26" s="4">
         <f>Summary!L3*XRates!E2</f>
-      </c>
-      <c r="M26" s="16">
+        <v>94.447764839999991</v>
+      </c>
+      <c r="M26" s="4">
         <f>Summary!M3*XRates!E2</f>
-      </c>
-      <c r="N26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
         <f>Summary!N3*XRates!E2</f>
-      </c>
-      <c r="O26" s="16">
+        <v>94.447764839999991</v>
+      </c>
+      <c r="O26" s="4">
         <f>Summary!O3*XRates!E2</f>
-      </c>
-      <c r="P26" s="16">
+        <v>85.462655740000002</v>
+      </c>
+      <c r="P26" s="4">
         <f>Summary!P3*XRates!E2</f>
-      </c>
-      <c r="Q26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
         <f>Summary!Q3*XRates!E2</f>
-      </c>
-      <c r="R26" s="16">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
         <f>Summary!R3*XRates!E2</f>
-      </c>
-    </row>
-    <row r="27">
+        <v>179.91042057999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1253,8 +1689,9 @@
       <c r="D27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="4">
         <f>Summary!E4*XRates!E3</f>
+        <v>48.106651207999995</v>
       </c>
       <c r="F27" t="s">
         <v>32</v>
@@ -1265,38 +1702,48 @@
       <c r="H27" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="4">
         <f>Summary!I4*XRates!E3</f>
-      </c>
-      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
         <f>Summary!J4*XRates!E3</f>
-      </c>
-      <c r="K27" s="17">
+        <v>48.106651207999995</v>
+      </c>
+      <c r="K27" s="4">
         <f>Summary!K4*XRates!E3</f>
-      </c>
-      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
         <f>Summary!L4*XRates!E3</f>
-      </c>
-      <c r="M27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
         <f>Summary!M4*XRates!E3</f>
-      </c>
-      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <f>Summary!N4*XRates!E3</f>
-      </c>
-      <c r="O27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
         <f>Summary!O4*XRates!E3</f>
-      </c>
-      <c r="P27" s="17">
+        <v>48.106651207999995</v>
+      </c>
+      <c r="P27" s="4">
         <f>Summary!P4*XRates!E3</f>
-      </c>
-      <c r="Q27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
         <f>Summary!Q4*XRates!E3</f>
-      </c>
-      <c r="R27" s="17">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
         <f>Summary!R4*XRates!E3</f>
-      </c>
-    </row>
-    <row r="28">
+        <v>48.106651207999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1309,8 +1756,9 @@
       <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="4">
         <f>Summary!E5*XRates!E4</f>
+        <v>4.99114608</v>
       </c>
       <c r="F28" t="s">
         <v>32</v>
@@ -1318,83 +1766,95 @@
       <c r="G28" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="4">
         <f>Summary!I5*XRates!E4</f>
-      </c>
-      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
         <f>Summary!J5*XRates!E4</f>
-      </c>
-      <c r="K28" s="18">
+        <v>4.99114608</v>
+      </c>
+      <c r="K28" s="4">
         <f>Summary!K5*XRates!E4</f>
-      </c>
-      <c r="L28" s="18">
+        <v>17.705078999999998</v>
+      </c>
+      <c r="L28" s="4">
         <f>Summary!L5*XRates!E4</f>
-      </c>
-      <c r="M28" s="18">
+        <v>-17.705078999999998</v>
+      </c>
+      <c r="M28" s="4">
         <f>Summary!M5*XRates!E4</f>
-      </c>
-      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
         <f>Summary!N5*XRates!E4</f>
-      </c>
-      <c r="O28" s="18">
+        <v>93.583988999999988</v>
+      </c>
+      <c r="O28" s="4">
         <f>Summary!O5*XRates!E4</f>
-      </c>
-      <c r="P28" s="18">
+        <v>176.36506947999996</v>
+      </c>
+      <c r="P28" s="4">
         <f>Summary!P5*XRates!E4</f>
-      </c>
-      <c r="Q28" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
         <f>Summary!Q5*XRates!E4</f>
-      </c>
-      <c r="R28" s="18">
+        <v>111.28906799999999</v>
+      </c>
+      <c r="R28" s="4">
         <f>Summary!R5*XRates!E4</f>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29" s="19">
-        <f>SUM(I26:I28)</f>
-      </c>
-      <c r="J29" s="19">
-        <f>SUM(J26:J28)</f>
-      </c>
-      <c r="K29" s="19">
-        <f>SUM(K26:K28)</f>
-      </c>
-      <c r="L29" s="19">
-        <f>SUM(L26:L28)</f>
-      </c>
-      <c r="M29" s="19">
-        <f>SUM(M26:M28)</f>
-      </c>
-      <c r="N29" s="19">
-        <f>SUM(N26:N28)</f>
-      </c>
-      <c r="O29" s="19">
-        <f>SUM(O26:O28)</f>
-      </c>
-      <c r="P29" s="19">
-        <f>SUM(P26:P28)</f>
-      </c>
-      <c r="Q29" s="19">
-        <f>SUM(Q26:Q28)</f>
-      </c>
-      <c r="R29" s="19">
-        <f>SUM(R26:R28)</f>
-      </c>
-    </row>
-    <row r="31">
+        <v>158.65999047999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I29" s="4">
+        <f t="shared" ref="I29:R29" si="3">SUM(I26:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="3"/>
+        <v>60.023658207999993</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="3"/>
+        <v>-76.742685839999993</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="3"/>
+        <v>76.742685839999993</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="3"/>
+        <v>188.03175383999996</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="3"/>
+        <v>309.93437642799995</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="3"/>
+        <v>111.28906799999999</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="3"/>
+        <v>386.67706226799999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1407,8 +1867,9 @@
       <c r="D32" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="5">
         <f>Summary!E3*XRates!F2</f>
+        <v>7.7419812800000001</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -1416,38 +1877,48 @@
       <c r="G32" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="5">
         <f>Summary!I3*XRates!F2</f>
-      </c>
-      <c r="J32" s="20">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
         <f>Summary!J3*XRates!F2</f>
-      </c>
-      <c r="K32" s="20">
+        <v>7.7419812800000001</v>
+      </c>
+      <c r="K32" s="5">
         <f>Summary!K3*XRates!F2</f>
-      </c>
-      <c r="L32" s="20">
+        <v>-105.57717456</v>
+      </c>
+      <c r="L32" s="5">
         <f>Summary!L3*XRates!F2</f>
-      </c>
-      <c r="M32" s="20">
+        <v>105.57717456</v>
+      </c>
+      <c r="M32" s="5">
         <f>Summary!M3*XRates!F2</f>
-      </c>
-      <c r="N32" s="20">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
         <f>Summary!N3*XRates!F2</f>
-      </c>
-      <c r="O32" s="20">
+        <v>105.57717456</v>
+      </c>
+      <c r="O32" s="5">
         <f>Summary!O3*XRates!F2</f>
-      </c>
-      <c r="P32" s="20">
+        <v>95.533290160000007</v>
+      </c>
+      <c r="P32" s="5">
         <f>Summary!P3*XRates!F2</f>
-      </c>
-      <c r="Q32" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
         <f>Summary!Q3*XRates!F2</f>
-      </c>
-      <c r="R32" s="20">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
         <f>Summary!R3*XRates!F2</f>
-      </c>
-    </row>
-    <row r="33">
+        <v>201.11046472000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1460,8 +1931,9 @@
       <c r="D33" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="5">
         <f>Summary!E4*XRates!F3</f>
+        <v>53.775396695999994</v>
       </c>
       <c r="F33" t="s">
         <v>32</v>
@@ -1472,38 +1944,48 @@
       <c r="H33" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="5">
         <f>Summary!I4*XRates!F3</f>
-      </c>
-      <c r="J33" s="21">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
         <f>Summary!J4*XRates!F3</f>
-      </c>
-      <c r="K33" s="21">
+        <v>53.775396695999994</v>
+      </c>
+      <c r="K33" s="5">
         <f>Summary!K4*XRates!F3</f>
-      </c>
-      <c r="L33" s="21">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
         <f>Summary!L4*XRates!F3</f>
-      </c>
-      <c r="M33" s="21">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
         <f>Summary!M4*XRates!F3</f>
-      </c>
-      <c r="N33" s="21">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
         <f>Summary!N4*XRates!F3</f>
-      </c>
-      <c r="O33" s="21">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
         <f>Summary!O4*XRates!F3</f>
-      </c>
-      <c r="P33" s="21">
+        <v>53.775396695999994</v>
+      </c>
+      <c r="P33" s="5">
         <f>Summary!P4*XRates!F3</f>
-      </c>
-      <c r="Q33" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
         <f>Summary!Q4*XRates!F3</f>
-      </c>
-      <c r="R33" s="21">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
         <f>Summary!R4*XRates!F3</f>
-      </c>
-    </row>
-    <row r="34">
+        <v>53.775396695999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1516,8 +1998,9 @@
       <c r="D34" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="5">
         <f>Summary!E5*XRates!F4</f>
+        <v>5.5792877762400011</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
@@ -1525,78 +2008,90 @@
       <c r="G34" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="5">
         <f>Summary!I5*XRates!F4</f>
-      </c>
-      <c r="J34" s="22">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
         <f>Summary!J5*XRates!F4</f>
-      </c>
-      <c r="K34" s="22">
+        <v>5.5792877762400011</v>
+      </c>
+      <c r="K34" s="5">
         <f>Summary!K5*XRates!F4</f>
-      </c>
-      <c r="L34" s="22">
+        <v>19.791392449500002</v>
+      </c>
+      <c r="L34" s="5">
         <f>Summary!L5*XRates!F4</f>
-      </c>
-      <c r="M34" s="22">
+        <v>-19.791392449500002</v>
+      </c>
+      <c r="M34" s="5">
         <f>Summary!M5*XRates!F4</f>
-      </c>
-      <c r="N34" s="22">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
         <f>Summary!N5*XRates!F4</f>
-      </c>
-      <c r="O34" s="22">
+        <v>104.6116458045</v>
+      </c>
+      <c r="O34" s="5">
         <f>Summary!O5*XRates!F4</f>
-      </c>
-      <c r="P34" s="22">
+        <v>197.14740072394</v>
+      </c>
+      <c r="P34" s="5">
         <f>Summary!P5*XRates!F4</f>
-      </c>
-      <c r="Q34" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
         <f>Summary!Q5*XRates!F4</f>
-      </c>
-      <c r="R34" s="22">
+        <v>124.40303825400001</v>
+      </c>
+      <c r="R34" s="5">
         <f>Summary!R5*XRates!F4</f>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35" s="23">
-        <f>SUM(I32:I34)</f>
-      </c>
-      <c r="J35" s="23">
-        <f>SUM(J32:J34)</f>
-      </c>
-      <c r="K35" s="23">
-        <f>SUM(K32:K34)</f>
-      </c>
-      <c r="L35" s="23">
-        <f>SUM(L32:L34)</f>
-      </c>
-      <c r="M35" s="23">
-        <f>SUM(M32:M34)</f>
-      </c>
-      <c r="N35" s="23">
-        <f>SUM(N32:N34)</f>
-      </c>
-      <c r="O35" s="23">
-        <f>SUM(O32:O34)</f>
-      </c>
-      <c r="P35" s="23">
-        <f>SUM(P32:P34)</f>
-      </c>
-      <c r="Q35" s="23">
-        <f>SUM(Q32:Q34)</f>
-      </c>
-      <c r="R35" s="23">
-        <f>SUM(R32:R34)</f>
+        <v>177.35600827444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I35" s="5">
+        <f t="shared" ref="I35:R35" si="4">SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="4"/>
+        <v>67.09666575224</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="4"/>
+        <v>-85.785782110500008</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="4"/>
+        <v>85.785782110500008</v>
+      </c>
+      <c r="M35" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" si="4"/>
+        <v>210.1888203645</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="4"/>
+        <v>346.45608757994</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="4"/>
+        <v>124.40303825400001</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="4"/>
+        <v>432.24186969044001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>